--- a/Doku/Projekt_Zeitplan.xlsx
+++ b/Doku/Projekt_Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\StudiumMobileRobotics\7.Semester\ProjektarbeitMR\Github\Grosser-Segler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Documents/GitHub/Grosser-Segler/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086C8CB6-0F33-4C56-8B3F-DA0E76946763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7282E-53C4-F344-9C9A-C8826A9A614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Aufgabenanalyse und Rückfragen an Auftraggeber</t>
-  </si>
-  <si>
-    <t>Beide genehmigt</t>
   </si>
   <si>
     <t>Mit Modellen Schlüsselfunktion aufzeigen</t>
@@ -142,15 +139,12 @@
   <si>
     <t>Projektarbeit: Grosser Segler</t>
   </si>
-  <si>
-    <t>hallo</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +179,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,12 +189,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -243,9 +231,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -550,28 +539,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="74.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.8">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -608,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -625,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -641,11 +630,8 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -662,9 +648,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -679,9 +665,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -699,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -719,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -736,12 +722,12 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -750,18 +736,18 @@
         <v>45587</v>
       </c>
       <c r="D11" s="4">
-        <v>45607</v>
+        <v>45614</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -776,29 +762,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45617</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45617</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45608</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45608</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -813,37 +799,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45624</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45624</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45631</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45631</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -858,9 +856,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -875,9 +873,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -892,12 +890,12 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -912,9 +910,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>10</v>
@@ -927,11 +925,6 @@
       </c>
       <c r="E21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Projekt_Zeitplan.xlsx
+++ b/Doku/Projekt_Zeitplan.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Documents/GitHub/Grosser-Segler/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7282E-53C4-F344-9C9A-C8826A9A614B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70217A2B-98D0-894C-9C92-3DA1A5D6DFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -56,12 +69,6 @@
   </si>
   <si>
     <t>Zeitplan/Pflichtenheft</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Markus</t>
   </si>
   <si>
     <t>Blockwoche</t>
@@ -139,11 +146,23 @@
   <si>
     <t>Projektarbeit: Grosser Segler</t>
   </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>Soll in h</t>
+  </si>
+  <si>
+    <t>Ist in h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-807]d/\ mmm\ yy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +198,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +211,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,25 +241,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,17 +594,19 @@
     <col min="1" max="1" width="74.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="4" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" customWidth="1"/>
+    <col min="11" max="28" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,356 +620,547 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="8">
+        <v>37</v>
+      </c>
+      <c r="L2" s="8">
+        <v>38</v>
+      </c>
+      <c r="M2" s="8">
+        <v>39</v>
+      </c>
+      <c r="N2" s="8">
+        <v>40</v>
+      </c>
+      <c r="O2" s="8">
+        <v>41</v>
+      </c>
+      <c r="P2" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>43</v>
+      </c>
+      <c r="R2" s="8">
+        <v>44</v>
+      </c>
+      <c r="S2" s="8">
+        <v>45</v>
+      </c>
+      <c r="T2" s="8">
+        <v>46</v>
+      </c>
+      <c r="U2" s="8">
+        <v>47</v>
+      </c>
+      <c r="V2" s="8">
+        <v>48</v>
+      </c>
+      <c r="W2" s="8">
+        <v>49</v>
+      </c>
+      <c r="X2" s="8">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>45545</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>45545</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>45552</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>45552</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45552</v>
+      </c>
+      <c r="D5" s="5">
+        <v>45566</v>
+      </c>
+      <c r="E5" s="12">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45552</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45566</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>45566</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45578</v>
+      </c>
+      <c r="E7" s="11">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>45579</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45582</v>
+      </c>
+      <c r="E8" s="11">
+        <v>64</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>45552</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45566</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45583</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45583</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45552</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45587</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45587</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45566</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45578</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45587</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45614</v>
+      </c>
+      <c r="E11" s="13">
+        <v>100</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45601</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45601</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45617</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45617</v>
+      </c>
+      <c r="E13" s="12">
+        <v>12</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45579</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45582</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45583</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45583</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45587</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45587</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>45609</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45643</v>
+      </c>
+      <c r="E14" s="11">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45624</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45624</v>
+      </c>
+      <c r="E15" s="11">
+        <v>12</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45631</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45631</v>
+      </c>
+      <c r="E16" s="11">
+        <v>12</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="9"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45587</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45614</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45601</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45601</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>45617</v>
-      </c>
-      <c r="D13" s="2">
-        <v>45617</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4">
+        <v>45638</v>
+      </c>
+      <c r="D17" s="5">
+        <v>45638</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4">
+        <v>45644</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45650</v>
+      </c>
+      <c r="E18" s="11">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45609</v>
-      </c>
-      <c r="D14" s="2">
-        <v>45643</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>41266</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45660</v>
+      </c>
+      <c r="E19" s="11">
+        <v>30</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="9">
-        <v>45624</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45624</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="9">
-        <v>45631</v>
-      </c>
-      <c r="D16" s="9">
-        <v>45631</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45638</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45638</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45644</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45650</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>41266</v>
-      </c>
-      <c r="D19" s="2">
-        <v>45660</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45662</v>
+      </c>
+      <c r="D20" s="5">
+        <v>45662</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="9"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45662</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45662</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4">
         <v>45664</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>45664</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12">
+        <v>27</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB21" s="9"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="E23" s="11">
+        <f>SUM(E3:E21)</f>
+        <v>480</v>
+      </c>
+      <c r="F23" s="11">
+        <f>SUM(F3:F21)</f>
         <v>9</v>
       </c>
     </row>

--- a/Doku/Projekt_Zeitplan.xlsx
+++ b/Doku/Projekt_Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDF8B3-C497-1142-9629-813166761A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF460F02-BC07-2C4E-9DB7-C23AA8CC3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -83,21 +83,12 @@
     <t>Aufgabenanalyse und Rückfragen an Auftraggeber</t>
   </si>
   <si>
-    <t>Mit Modellen Schlüsselfunktion aufzeigen</t>
-  </si>
-  <si>
-    <t>HW Einbau mit Ulrich</t>
-  </si>
-  <si>
     <t>Präsentation Projektstand an Betreuer und Auftraggeber</t>
   </si>
   <si>
     <t>Umstieg auf grossen Segler</t>
   </si>
   <si>
-    <t>Platzreservieren Badragaz</t>
-  </si>
-  <si>
     <t>Testflug 1 grosser Segler</t>
   </si>
   <si>
@@ -192,6 +183,15 @@
   </si>
   <si>
     <t>Reserve für Überarbeitung</t>
+  </si>
+  <si>
+    <t>Konzept für sicheres Starten von grossen Segler</t>
+  </si>
+  <si>
+    <t>HW Einbau mit Absprache Ulrich</t>
+  </si>
+  <si>
+    <t>Platz reservieren Badragaz</t>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,7 +350,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -669,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="133" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -681,20 +680,20 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="37.5" customWidth="1"/>
     <col min="11" max="11" width="3.1640625" customWidth="1"/>
     <col min="12" max="29" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -709,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -721,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" s="7">
         <v>37</v>
@@ -782,7 +781,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -790,10 +789,10 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>45545</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="9">
         <v>2</v>
       </c>
@@ -816,8 +815,8 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="9">
         <v>8</v>
       </c>
@@ -840,7 +839,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="5">
         <v>45566</v>
       </c>
@@ -858,7 +857,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -866,10 +865,10 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>45552</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="9">
         <v>4</v>
       </c>
@@ -884,16 +883,16 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="9">
         <v>40</v>
       </c>
@@ -909,10 +908,13 @@
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="9">
         <v>15</v>
       </c>
@@ -928,10 +930,13 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>45578</v>
       </c>
       <c r="F9" s="9">
@@ -948,18 +953,18 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>45579</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9">
         <v>64</v>
       </c>
@@ -980,8 +985,8 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
         <v>45585</v>
       </c>
       <c r="F11" s="9">
@@ -997,9 +1002,8 @@
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1013,36 +1017,33 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>45587</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="10">
         <v>6</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" t="s">
         <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
       </c>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -1053,16 +1054,22 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="10">
         <v>16</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" t="s">
         <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>51</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -1073,10 +1080,13 @@
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="10">
         <v>16</v>
       </c>
@@ -1093,10 +1103,13 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="10">
         <v>32</v>
       </c>
@@ -1113,10 +1126,13 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20">
         <v>45614</v>
       </c>
       <c r="F17" s="10">
@@ -1134,7 +1150,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -1150,20 +1166,20 @@
       <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="T18" s="26"/>
+      <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23">
         <v>45617</v>
       </c>
       <c r="F19" s="9">
@@ -1174,7 +1190,7 @@
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -1183,14 +1199,20 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="9">
         <v>32</v>
       </c>
       <c r="G20" s="9"/>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
@@ -1198,13 +1220,13 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <v>45624</v>
       </c>
       <c r="F21" s="9">
@@ -1215,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -1224,15 +1246,20 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="9">
         <v>32</v>
       </c>
       <c r="G22" s="9"/>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
@@ -1240,13 +1267,13 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
         <v>45631</v>
       </c>
       <c r="F23" s="9">
@@ -1257,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -1265,7 +1292,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1281,22 +1308,22 @@
       <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="Y24" s="26"/>
+      <c r="Y24" s="25"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>48</v>
+      <c r="A25" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>45644</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="9">
         <v>30</v>
       </c>
@@ -1304,20 +1331,20 @@
       <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21">
         <v>45660</v>
       </c>
       <c r="F26" s="9">
@@ -1328,15 +1355,15 @@
         <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
+        <v>21</v>
+      </c>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
@@ -1350,13 +1377,13 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB27" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="AB27" s="26"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -1370,9 +1397,9 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC28" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="AC28" s="25"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="F30" s="9">

--- a/Doku/Projekt_Zeitplan.xlsx
+++ b/Doku/Projekt_Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Documents/GitHub/Grosser-Segler/Doku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF460F02-BC07-2C4E-9DB7-C23AA8CC3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF4A6CF-7632-C843-B06D-2C8EE95B80D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17160" yWindow="940" windowWidth="16880" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>Aufgaben</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Abgeschlossen</t>
-  </si>
-  <si>
-    <t>In Bearbeitung</t>
   </si>
   <si>
     <t>Geplant</t>
@@ -668,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="133" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -687,13 +684,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -708,10 +705,10 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -720,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="7">
         <v>37</v>
@@ -781,13 +778,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="24">
         <v>45545</v>
@@ -810,10 +807,10 @@
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -834,10 +831,10 @@
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="5">
@@ -846,9 +843,11 @@
       <c r="F5" s="9">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -857,13 +856,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="18">
         <v>45552</v>
@@ -874,7 +873,7 @@
       </c>
       <c r="G6" s="9"/>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -883,13 +882,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -898,7 +897,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -908,19 +907,21 @@
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="9">
         <v>15</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="9">
+        <v>6.5</v>
+      </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -930,10 +931,10 @@
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18">
@@ -944,7 +945,7 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -953,13 +954,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="22">
         <v>45579</v>
@@ -970,20 +971,20 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22">
@@ -994,19 +995,19 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5">
@@ -1017,22 +1018,22 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="19">
         <v>45587</v>
@@ -1043,7 +1044,7 @@
       </c>
       <c r="G13" s="10"/>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -1054,10 +1055,10 @@
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20"/>
@@ -1066,10 +1067,10 @@
       </c>
       <c r="G14" s="10"/>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -1080,10 +1081,10 @@
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
@@ -1092,7 +1093,7 @@
       </c>
       <c r="G15" s="10"/>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -1103,10 +1104,10 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
@@ -1115,7 +1116,7 @@
       </c>
       <c r="G16" s="10"/>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -1126,10 +1127,10 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="G17" s="10"/>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
@@ -1150,10 +1151,10 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5">
@@ -1164,19 +1165,19 @@
       </c>
       <c r="G18" s="9"/>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T18" s="25"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23">
@@ -1187,10 +1188,10 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -1199,10 +1200,10 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="G20" s="9"/>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -1220,10 +1221,10 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23">
@@ -1234,10 +1235,10 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
@@ -1246,10 +1247,10 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="G22" s="9"/>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
@@ -1267,10 +1268,10 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23">
@@ -1281,10 +1282,10 @@
       </c>
       <c r="G23" s="9"/>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
@@ -1292,10 +1293,10 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5">
@@ -1306,19 +1307,19 @@
       </c>
       <c r="G24" s="9"/>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y24" s="25"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="21">
         <v>45644</v>
@@ -1329,7 +1330,7 @@
       </c>
       <c r="G25" s="9"/>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
@@ -1338,10 +1339,10 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21">
@@ -1352,10 +1353,10 @@
       </c>
       <c r="G26" s="9"/>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
@@ -1363,10 +1364,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5">
@@ -1377,16 +1378,16 @@
       </c>
       <c r="G27" s="9"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" s="26"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5">
@@ -1397,7 +1398,7 @@
       </c>
       <c r="G28" s="9"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC28" s="25"/>
     </row>
@@ -1408,7 +1409,7 @@
       </c>
       <c r="G30" s="9">
         <f>SUM(G3:G28)</f>
-        <v>9</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Doku/Projekt_Zeitplan.xlsx
+++ b/Doku/Projekt_Zeitplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurofrehner/Documents/GitHub/Grosser-Segler/Doku/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\Documents\StudiumMobileRobotics\7.Semester\ProjektarbeitMR\Github\Grosser-Segler\Doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF4A6CF-7632-C843-B06D-2C8EE95B80D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44837E7-26D9-439E-B2C1-6E110E7EE603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="940" windowWidth="16880" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-807]d/\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,30 +665,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="F28" sqref="F17:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="62.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" customWidth="1"/>
     <col min="12" max="29" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="22.8">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="16.2">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" s="12" t="s">
         <v>32</v>
       </c>
@@ -804,7 +804,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>14</v>
@@ -828,7 +828,7 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>10</v>
@@ -854,7 +854,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>41</v>
@@ -928,7 +928,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
         <v>42</v>
@@ -952,7 +952,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>13</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1016,9 @@
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
       <c r="H12" t="s">
         <v>45</v>
       </c>
@@ -1025,7 +1027,7 @@
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1054,7 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14" s="14"/>
       <c r="B14" t="s">
         <v>35</v>
@@ -1078,7 +1080,7 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15" s="14"/>
       <c r="B15" t="s">
         <v>37</v>
@@ -1101,7 +1103,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16" s="14"/>
       <c r="B16" t="s">
         <v>46</v>
@@ -1124,7 +1126,7 @@
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29">
       <c r="A17" s="14"/>
       <c r="B17" t="s">
         <v>47</v>
@@ -1139,7 +1141,9 @@
       <c r="F17" s="10">
         <v>30</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>64</v>
+      </c>
       <c r="H17" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1153,7 @@
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1173,7 @@
       </c>
       <c r="T18" s="25"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29">
       <c r="A19" s="15" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1201,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29">
       <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>48</v>
@@ -1218,7 +1222,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>18</v>
@@ -1244,7 +1248,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29">
       <c r="A22" s="15"/>
       <c r="B22" t="s">
         <v>48</v>
@@ -1265,7 +1269,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
         <v>21</v>
@@ -1291,7 +1295,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1315,7 @@
       </c>
       <c r="Y24" s="25"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29">
       <c r="A25" s="17" t="s">
         <v>44</v>
       </c>
@@ -1336,7 +1340,7 @@
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29">
       <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>19</v>
@@ -1362,7 +1366,7 @@
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1382,7 +1386,7 @@
       </c>
       <c r="AB27" s="26"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29">
       <c r="B28" t="s">
         <v>22</v>
       </c>
@@ -1402,14 +1406,14 @@
       </c>
       <c r="AC28" s="25"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29">
       <c r="F30" s="9">
         <f>SUM(F3:F28)</f>
         <v>440</v>
       </c>
       <c r="G30" s="9">
         <f>SUM(G3:G28)</f>
-        <v>17.5</v>
+        <v>81.5</v>
       </c>
     </row>
   </sheetData>
